--- a/data/population_models/models_summary_kriegberg_male.xlsx
+++ b/data/population_models/models_summary_kriegberg_male.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,357 +408,402 @@
           <t>Deviance</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ind_per_ha</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.94 [0.915-0.963]</t>
+          <t>0.9 [0.838-0.953]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.04 [0.022-0.057]</t>
+          <t>0.09 [0.044-0.163]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0 [0-1]</t>
+          <t>0.09 [0.059-0.128]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>563 [366-911]</t>
+          <t>475 [315-761]</t>
         </is>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>253.0424632520325</v>
+        <v>201.4552237288136</v>
       </c>
       <c r="H2">
-        <v>36.23643909274048</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>9.248845153900314E-09</v>
+        <v>0.4823669828846306</v>
       </c>
       <c r="J2">
-        <v>-294.18871</v>
+        <v>-356.97617</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>56 [37-91]</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~1)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.77 [0.344-0.948]</t>
+          <t>0.9 [0.833-0.955]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.07 [0.034-0.129]</t>
+          <t>0.09 [0.045-0.171]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.06 [0.032-0.1]</t>
+          <t>0.09 [0.044-0.183]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>537 [352-864]</t>
+          <t>503 [324-833]</t>
         </is>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>243.7625124561403</v>
+        <v>202.8881118803419</v>
       </c>
       <c r="H3">
-        <v>26.95648829684831</v>
+        <v>1.432888151528317</v>
       </c>
       <c r="I3">
-        <v>9.576420771075753E-07</v>
+        <v>0.2356296102047661</v>
       </c>
       <c r="J3">
-        <v>-324.33645</v>
+        <v>-357.8982</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>51 [33-86]</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.95 [0.918-0.968]</t>
+          <t>0.88 [0.771-0.949]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.03 [0.021-0.058]</t>
+          <t>0.08 [0.039-0.169]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0 [0-1]</t>
+          <t>0.08 [0.054-0.135]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>544 [355-881]</t>
+          <t>467 [311-745]</t>
         </is>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>252.9542332786885</v>
+        <v>203.5945418803419</v>
       </c>
       <c r="H4">
-        <v>36.14820911939651</v>
+        <v>2.139318151528329</v>
       </c>
       <c r="I4">
-        <v>9.66599138520304E-09</v>
+        <v>0.1655124012222947</v>
       </c>
       <c r="J4">
-        <v>-296.44354</v>
+        <v>-357.19177</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>43 [43-43]</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.81 [0.474-0.953]</t>
+          <t>0.9 [0.83-0.957]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.07 [0.034-0.121]</t>
+          <t>0.09 [0.042-0.181]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.07 [0.042-0.103]</t>
+          <t>0.09 [0.042-0.188]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>552 [359-899]</t>
+          <t>498 [321-827]</t>
         </is>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>240.268484159292</v>
+        <v>205.2442520689655</v>
       </c>
       <c r="H5">
-        <v>23.46245999999999</v>
+        <v>3.789028340151958</v>
       </c>
       <c r="I5">
-        <v>5.494419621472806E-06</v>
+        <v>0.07254383715556603</v>
       </c>
       <c r="J5">
-        <v>-330.35431</v>
+        <v>-357.93758</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>54 [36-88]</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.95 [0.914-0.966]</t>
+          <t>0.89 [0.707-0.938]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.04 [0.021-0.061]</t>
+          <t>0.05 [0.026-0.087]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.07 [0.009-0.981]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>553 [360-897]</t>
+          <t>420 [282-670]</t>
         </is>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>254.112534876033</v>
+        <v>207.8367837288136</v>
       </c>
       <c r="H6">
-        <v>37.306510716741</v>
+        <v>6.381560000000007</v>
       </c>
       <c r="I6">
-        <v>5.41657059424297E-09</v>
+        <v>0.01984446644251174</v>
       </c>
       <c r="J6">
-        <v>-297.48765</v>
+        <v>-350.59461</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>54 [35-90]</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur + wind)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.85 [0.45-0.958]</t>
+          <t>0.81 [0.733-0.876]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.08 [0.04-0.147]</t>
+          <t>0.1 [0.052-0.182]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.05 [0.029-0.087]</t>
+          <t>0.09 [0.055-0.191]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>480 [319-769]</t>
+          <t>519 [338-843]</t>
         </is>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>234.0796142857143</v>
+        <v>211.0606633333333</v>
       </c>
       <c r="H7">
-        <v>17.27359012642225</v>
+        <v>9.605439604519773</v>
       </c>
       <c r="I7">
-        <v>0.0001212880020498705</v>
+        <v>0.003958975965961492</v>
       </c>
       <c r="J7">
-        <v>-339.11207</v>
+        <v>-342.77864</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>52 [34-87]</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.93 [0.902-0.948]</t>
+          <t>0.81 [0.728-0.87]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.04 [0.029-0.052]</t>
+          <t>0.1 [0.053-0.19]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.09 [0.056-0.181]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>615 [409-963]</t>
+          <t>524 [342-852]</t>
         </is>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>245.6746532786885</v>
+        <v>211.6109540336134</v>
       </c>
       <c r="H8">
-        <v>28.8686291193965</v>
+        <v>10.15573030479987</v>
       </c>
       <c r="I8">
-        <v>3.681180527256259E-07</v>
+        <v>0.003006690725581729</v>
       </c>
       <c r="J8">
-        <v>-303.72312</v>
+        <v>-344.50511</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>55 [36-90]</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.79 [0.459-0.929]</t>
+          <t>0.84 [0.607-0.922]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.06 [0.035-0.112]</t>
+          <t>0.09 [0.045-0.185]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.03 [0.014-0.083]</t>
+          <t>0.09 [0.05-0.208]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>517 [341-830]</t>
+          <t>502 [329-813]</t>
         </is>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>231.841584159292</v>
+        <v>212.0566637288136</v>
       </c>
       <c r="H9">
-        <v>15.03556</v>
+        <v>10.60144</v>
       </c>
       <c r="I9">
-        <v>0.0003713640925453444</v>
+        <v>0.002406047114941718</v>
       </c>
       <c r="J9">
-        <v>-338.78121</v>
+        <v>-346.37473</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>54 [35-89]</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.93 [0.898-0.953]</t>
+          <t>0.9 [0.5-0]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.04 [0.023-0.066]</t>
+          <t>0.04 [1-0]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -768,1157 +813,3835 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>602 [388-983]</t>
+          <t>417 [417-417]</t>
         </is>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>243.056294876033</v>
+        <v>212.5998140336134</v>
       </c>
       <c r="H10">
-        <v>26.250270716741</v>
+        <v>11.14459030479986</v>
       </c>
       <c r="I10">
-        <v>1.363190086065685E-06</v>
+        <v>0.001833836182326096</v>
       </c>
       <c r="J10">
-        <v>-308.5439</v>
+        <v>-343.51625</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>47 [31-75]</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.87 [0.632-0.951]</t>
+          <t>0.85 [0.599-0.929]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.05 [0.027-0.093]</t>
+          <t>0.07 [0.037-0.135]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.02 [0.004-0.12]</t>
+          <t>0.09 [0.055-0.155]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>452 [296-740]</t>
+          <t>482 [320-771]</t>
         </is>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>228.7440142857143</v>
+        <v>212.6593240336134</v>
       </c>
       <c r="H11">
-        <v>11.93799012642225</v>
+        <v>11.20410030479988</v>
       </c>
       <c r="I11">
-        <v>0.001747546179297515</v>
+        <v>0.001780074197156182</v>
       </c>
       <c r="J11">
-        <v>-344.44767</v>
+        <v>-343.45674</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>62 [41-96]</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.93 [0.893-0.948]</t>
+          <t>0.82 [0.691-0.9]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.04 [0.023-0.068]</t>
+          <t>0.09 [0.046-0.177]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.09 [0.05-0.263]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>628 [403-1027]</t>
+          <t>514 [337-832]</t>
         </is>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>246.491324876033</v>
+        <v>212.7053640336134</v>
       </c>
       <c r="H12">
-        <v>29.68530071674101</v>
+        <v>11.25014030479988</v>
       </c>
       <c r="I12">
-        <v>2.447085433735146E-07</v>
+        <v>0.001739564939566861</v>
       </c>
       <c r="J12">
-        <v>-305.10886</v>
+        <v>-343.41069</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>48 [31-80]</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.78 [0.461-0.946]</t>
+          <t>0.89 [0.713-0.944]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.07 [0.032-0.148]</t>
+          <t>0.05 [0.025-0.085]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.04 [0.015-0.091]</t>
+          <t>0 [0-0]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>511 [337-822]</t>
+          <t>423 [285-671]</t>
         </is>
       </c>
       <c r="F13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>233.9082342857143</v>
+        <v>213.1537737288136</v>
       </c>
       <c r="H13">
-        <v>17.10221012642225</v>
+        <v>11.69855000000001</v>
       </c>
       <c r="I13">
-        <v>0.0001321394625980715</v>
+        <v>0.001390175780072264</v>
       </c>
       <c r="J13">
-        <v>-339.28345</v>
+        <v>-345.27762</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>42 [42-42]</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.92 [0.891-0.948]</t>
+          <t>0.81 [0.688-0.894]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.04 [0.023-0.071]</t>
+          <t>0.1 [0.048-0.184]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.09 [0.051-0.229]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>624 [400-1022]</t>
+          <t>520 [340-842]</t>
         </is>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>242.6404733333333</v>
+        <v>213.2427537288136</v>
       </c>
       <c r="H14">
-        <v>25.83444917404131</v>
+        <v>11.78753</v>
       </c>
       <c r="I14">
-        <v>1.678227833877239E-06</v>
+        <v>0.001329682510238859</v>
       </c>
       <c r="J14">
-        <v>-311.19883</v>
+        <v>-345.18865</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>60 [39-98]</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.88 [0.652-0.967]</t>
+          <t>0.81 [0.732-0.876]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.06 [0.036-0.12]</t>
+          <t>0.1 [0.05-0.188]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.03 [0.013-0.086]</t>
+          <t>0.09 [0.053-0.201]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>459 [459-459]</t>
+          <t>517 [337-842]</t>
         </is>
       </c>
       <c r="F15">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>227.4112709009009</v>
+        <v>213.2902140336134</v>
       </c>
       <c r="H15">
-        <v>10.60524674160885</v>
+        <v>11.83499030479987</v>
       </c>
       <c r="I15">
-        <v>0.003402751309632458</v>
+        <v>0.001298500383200642</v>
       </c>
       <c r="J15">
-        <v>-348.39561</v>
+        <v>-342.82584</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>48 [32-79]</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~time)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.83 [0.722-0.899]</t>
+          <t>0.81 [0.727-0.87]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.08 [0.025-0.214]</t>
+          <t>0.1 [0.051-0.196]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0 [0-1]</t>
+          <t>0.09 [0.053-0.187]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1402 [568-3763]</t>
+          <t>522 [340-850]</t>
         </is>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>216.806024159292</v>
+        <v>213.7990137288136</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.34379000000001</v>
       </c>
       <c r="I16">
-        <v>0.6834870325867971</v>
+        <v>0.001006833441771545</v>
       </c>
       <c r="J16">
-        <v>-353.81676</v>
+        <v>-344.63239</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>42 [42-42]</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~time)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.78 [0.2-0.908]</t>
+          <t>0.84 [0.588-0.925]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.25 [0.017-0.381]</t>
+          <t>0.09 [0.041-0.193]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0 [0-0.012]</t>
+          <t>0.09 [0.047-0.215]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>582 [334-1107]</t>
+          <t>501 [328-810]</t>
         </is>
       </c>
       <c r="F17">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>224.7457246153846</v>
+        <v>214.3622218803419</v>
       </c>
       <c r="H17">
-        <v>7.939700456092567</v>
+        <v>12.90699815152831</v>
       </c>
       <c r="I17">
-        <v>0.0129016789732404</v>
+        <v>0.0007597287053050968</v>
       </c>
       <c r="J17">
-        <v>-370.77564</v>
+        <v>-346.4241</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>63 [40-103]</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.94 [0.911-0.961]</t>
+          <t>0.82 [0.685-0.902]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.04 [0.022-0.061]</t>
+          <t>0.09 [0.043-0.182]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.09 [0.046-0.286]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>572 [371-928]</t>
+          <t>511 [334-827]</t>
         </is>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>254.3844032786885</v>
+        <v>214.8212237288136</v>
       </c>
       <c r="H18">
-        <v>37.57837911939649</v>
+        <v>13.36600000000001</v>
       </c>
       <c r="I18">
-        <v>4.728124830641242E-09</v>
+        <v>0.0006039313174349206</v>
       </c>
       <c r="J18">
-        <v>-295.01338</v>
+        <v>-343.61017</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>49 [32-80]</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.8 [0.381-0.952]</t>
+          <t>0.83 [0.7-0.908]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.08 [0.039-0.154]</t>
+          <t>0.08 [0.039-0.149]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.05 [0.028-0.088]</t>
+          <t>0.09 [0.057-0.151]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>495 [327-793]</t>
+          <t>504 [332-810]</t>
         </is>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>240.195154159292</v>
+        <v>215.1235033333333</v>
       </c>
       <c r="H19">
-        <v>23.38912999999999</v>
+        <v>13.66827960451977</v>
       </c>
       <c r="I19">
-        <v>5.69961120514968E-06</v>
+        <v>0.0005192163607498475</v>
       </c>
       <c r="J19">
-        <v>-330.42763</v>
+        <v>-338.71581</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>43 [43-43]</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~1)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.79 [0.725-0.841]</t>
+          <t>0.81 [0.682-0.895]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.11 [0.063-0.179]</t>
+          <t>0.09 [0.044-0.189]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.09 [0.056-0.41]</t>
+          <t>0.09 [0.047-0.251]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>495 [327-796]</t>
+          <t>515 [337-835]</t>
         </is>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>221.8283724561404</v>
+        <v>215.2529318803419</v>
       </c>
       <c r="H20">
-        <v>5.022348296848321</v>
+        <v>13.79770815152833</v>
       </c>
       <c r="I20">
-        <v>0.05548060695664649</v>
+        <v>0.0004866797955601426</v>
       </c>
       <c r="J20">
-        <v>-346.27058</v>
+        <v>-345.53338</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>62 [40-102]</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~1)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.78 [0.155-0.93]</t>
+          <t>0.78 [0.672-0.85]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.11 [0.058-0.212]</t>
+          <t>0.14 [0.07-0.247]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.09 [0.037-0.43]</t>
+          <t>0.02 [0.011-0.048]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>489 [319-799]</t>
+          <t>703 [396-1340]</t>
         </is>
       </c>
       <c r="F21">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G21">
-        <v>232.2186952380953</v>
+        <v>215.5065137288136</v>
       </c>
       <c r="H21">
-        <v>15.41267107880321</v>
+        <v>14.05128999999999</v>
       </c>
       <c r="I21">
-        <v>0.0003075468469629007</v>
+        <v>0.000428724910341061</v>
       </c>
       <c r="J21">
-        <v>-360.32538</v>
+        <v>-342.92488</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>49 [32-79]</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.8 [0.736-0.854]</t>
+          <t>0.83 [0.702-0.912]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.1 [0.059-0.178]</t>
+          <t>0.07 [0.035-0.147]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.09 [0.056-0.234]</t>
+          <t>0.09 [0.052-0.161]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>481 [318-773]</t>
+          <t>504 [332-811]</t>
         </is>
       </c>
       <c r="F22">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G22">
-        <v>220.410184159292</v>
+        <v>215.7008240336134</v>
       </c>
       <c r="H22">
-        <v>3.604159999999979</v>
+        <v>14.24560030479986</v>
       </c>
       <c r="I22">
-        <v>0.1127448931637517</v>
+        <v>0.0003890315035048822</v>
       </c>
       <c r="J22">
-        <v>-350.21261</v>
+        <v>-340.41523</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>42 [28-67]</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.8 [0.8-0]</t>
+          <t>0.82 [0.689-0.904]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.11 [1-0]</t>
+          <t>0.08 [0.039-0.159]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.09 [0.5-0]</t>
+          <t>0.09 [0.058-0.149]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>472 [472-472]</t>
+          <t>502 [331-809]</t>
         </is>
       </c>
       <c r="F23">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G23">
-        <v>235.4181746153846</v>
+        <v>216.4324440336135</v>
       </c>
       <c r="H23">
-        <v>18.61215045609256</v>
+        <v>14.97722030479989</v>
       </c>
       <c r="I23">
-        <v>6.210880304461713E-05</v>
+        <v>0.0002698457032526875</v>
       </c>
       <c r="J23">
-        <v>-360.10318</v>
+        <v>-339.68361</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>79 [49-130]</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.8 [0.735-0.853]</t>
+          <t>0.82 [0.689-0.908]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.1 [0.058-0.18]</t>
+          <t>0.08 [0.036-0.158]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.09 [0.056-0.329]</t>
+          <t>0.09 [0.052-0.158]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>482 [319-774]</t>
+          <t>503 [331-812]</t>
         </is>
       </c>
       <c r="F24">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G24">
-        <v>222.8533842857143</v>
+        <v>216.5005537288136</v>
       </c>
       <c r="H24">
-        <v>6.047360126422234</v>
+        <v>15.04533000000001</v>
       </c>
       <c r="I24">
-        <v>0.03323247700107034</v>
+        <v>0.0002608108621707559</v>
       </c>
       <c r="J24">
-        <v>-350.3383</v>
+        <v>-341.93084</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>80 [50-131]</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.83 [0.256-0.956]</t>
+          <t>0.89 [0.837-0.952]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.11 [0.045-0.238]</t>
+          <t>0.08 [0.038-0.141]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.09 [0.033-0.427]</t>
+          <t>0.04 [0.022-0.073]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>543 [334-946]</t>
+          <t>471 [314-748]</t>
         </is>
       </c>
       <c r="F25">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>236.5101654368932</v>
+        <v>218.8620140336134</v>
       </c>
       <c r="H25">
-        <v>19.70414127760117</v>
+        <v>17.40679030479987</v>
       </c>
       <c r="I25">
-        <v>3.597744894898841E-05</v>
+        <v>8.00831384932794E-05</v>
       </c>
       <c r="J25">
-        <v>-362.04629</v>
+        <v>-337.25404</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>78 [49-130]</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.76 [0.673-0.835]</t>
+          <t>0.85 [0.761-0.904]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.13 [0.082-0.2]</t>
+          <t>0.08 [0.041-0.153]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.09 [0.056-0.359]</t>
+          <t>0.09 [0.063-0.137]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>464 [463-464]</t>
+          <t>548 [356-892]</t>
         </is>
       </c>
       <c r="F26">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>223.368534159292</v>
+        <v>219.016194876033</v>
       </c>
       <c r="H26">
-        <v>6.562510000000003</v>
+        <v>17.56097114721948</v>
       </c>
       <c r="I26">
-        <v>0.02568616920755119</v>
+        <v>7.414146111218157E-05</v>
       </c>
       <c r="J26">
-        <v>-347.25425</v>
+        <v>-332.58399</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>78 [49-129]</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.77 [0.335-0.934]</t>
+          <t>0.85 [0.763-0.905]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.12 [0.05-0.258]</t>
+          <t>0.08 [0.038-0.152]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.09 [0.033-0.549]</t>
+          <t>0.09 [0.06-0.14]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>487 [317-798]</t>
+          <t>560 [362-913]</t>
         </is>
       </c>
       <c r="F27">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>235.1360346153846</v>
+        <v>219.3128433333333</v>
       </c>
       <c r="H27">
-        <v>18.33001045609257</v>
+        <v>17.85761960451978</v>
       </c>
       <c r="I27">
-        <v>7.151861281008221E-05</v>
+        <v>6.392117453408076E-05</v>
       </c>
       <c r="J27">
-        <v>-360.38532</v>
+        <v>-334.52646</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>78 [49-129]</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.8 [0.694-0.871]</t>
+          <t>0.93 [0.2-0]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.11 [0.049-0.226]</t>
+          <t>0.05 [1-0]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.09 [0.054-0.438]</t>
+          <t>0.07 [0.1-0]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>475 [308-784]</t>
+          <t>458 [458-458]</t>
         </is>
       </c>
       <c r="F28">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>222.6396442857143</v>
+        <v>219.4146640336134</v>
       </c>
       <c r="H28">
-        <v>5.833620126422232</v>
+        <v>17.95944030479987</v>
       </c>
       <c r="I28">
-        <v>0.03698075420514</v>
+        <v>6.074837459427947E-05</v>
       </c>
       <c r="J28">
-        <v>-350.55205</v>
+        <v>-336.70139</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>82 [41-182]</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.83 [0.333-0.957]</t>
+          <t>0.81 [0.681-0.887]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.11 [0.046-0.254]</t>
+          <t>0.1 [0.042-0.203]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.09 [0.036-0.454]</t>
+          <t>0.06 [0.029-0.289]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>457 [298-751]</t>
+          <t>788 [387-1775]</t>
         </is>
       </c>
       <c r="F29">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G29">
-        <v>238.9410854368932</v>
+        <v>220.2306640336134</v>
       </c>
       <c r="H29">
-        <v>22.13506127760118</v>
+        <v>18.77544030479987</v>
       </c>
       <c r="I29">
-        <v>1.06699600812253E-05</v>
+        <v>4.03963860279872E-05</v>
       </c>
       <c r="J29">
-        <v>-359.61538</v>
+        <v>-335.8854</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>57 [37-93]</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.76 [0.671-0.837]</t>
+          <t>0.84 [0.76-0.903]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.13 [0.061-0.256]</t>
+          <t>0.08 [0.038-0.157]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.09 [0.056-0.468]</t>
+          <t>0.09 [0.059-0.139]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>463 [303-757]</t>
+          <t>564 [364-924]</t>
         </is>
       </c>
       <c r="F30">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>225.9020642857143</v>
+        <v>220.4162740336134</v>
       </c>
       <c r="H30">
-        <v>9.096040126422253</v>
+        <v>18.96105030479987</v>
       </c>
       <c r="I30">
-        <v>0.00723686151998386</v>
+        <v>3.681610282428589E-05</v>
       </c>
       <c r="J30">
-        <v>-347.28962</v>
+        <v>-335.69978</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>52 [33-86]</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.79 [0.357-0.932]</t>
+          <t>0.84 [0.759-0.902]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.13 [0.054-0.253]</t>
+          <t>0.08 [0.04-0.159]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.09 [0.046-0.285]</t>
+          <t>0.09 [0.063-0.137]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>571 [350-999]</t>
+          <t>550 [356-896]</t>
         </is>
       </c>
       <c r="F31">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G31">
-        <v>236.4132854368932</v>
+        <v>220.6153033333333</v>
       </c>
       <c r="H31">
-        <v>19.60726127760117</v>
+        <v>19.16007960451978</v>
       </c>
       <c r="I31">
-        <v>3.776309579793231E-05</v>
+        <v>3.332875961491427E-05</v>
       </c>
       <c r="J31">
-        <v>-362.14318</v>
+        <v>-333.224</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>48 [32-76]</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.8 [0.729-0.852]</t>
+          <t>0.9 [0.6-0]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.11 [0.056-0.199]</t>
+          <t>0.04 [1-0]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.09 [0.055-0.532]</t>
+          <t>0.07 [0.1-0]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>477 [315-767]</t>
+          <t>425 [425-425]</t>
         </is>
       </c>
       <c r="F32">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>225.2190309009009</v>
+        <v>220.6268940336134</v>
       </c>
       <c r="H32">
-        <v>8.413006741608854</v>
+        <v>19.17167030479987</v>
       </c>
       <c r="I32">
-        <v>0.01018284369128579</v>
+        <v>3.313616639482223E-05</v>
       </c>
       <c r="J32">
-        <v>-350.58784</v>
+        <v>-335.48916</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>59 [38-96]</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.83 [0.449-0.955]</t>
+          <t>0.79 [0.645-0.87]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.12 [0.04-0.277]</t>
+          <t>0.15 [0.049-0.265]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.09 [0.036-0.4]</t>
+          <t>0.07 [0.038-0.492]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>566 [350-979]</t>
+          <t>725 [385-1491]</t>
         </is>
       </c>
       <c r="F33">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G33">
-        <v>239.4413080392157</v>
+        <v>220.8558037288136</v>
       </c>
       <c r="H33">
-        <v>22.63528387992366</v>
+        <v>19.40057999999999</v>
       </c>
       <c r="I33">
-        <v>8.308848430653291E-06</v>
+        <v>2.955256312333689E-05</v>
       </c>
       <c r="J33">
-        <v>-362.20976</v>
+        <v>-337.57559</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>54 [35-87]</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~time)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.78 [0.646-0.872]</t>
+          <t>0.79 [0.694-0.864]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.14 [0.026-0.412]</t>
+          <t>0.1 [0.044-0.206]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.1 [0.028-0.595]</t>
+          <t>0.07 [0.038-0.49]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>919 [453-2018]</t>
+          <t>948 [454-2154]</t>
         </is>
       </c>
       <c r="F34">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G34">
-        <v>239.6991846153846</v>
+        <v>221.0454433333333</v>
       </c>
       <c r="H34">
-        <v>22.89316045609257</v>
+        <v>19.59021960451977</v>
       </c>
       <c r="I34">
-        <v>7.303712166369592E-06</v>
+        <v>2.687914417318939E-05</v>
       </c>
       <c r="J34">
-        <v>-355.82217</v>
+        <v>-332.79386</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>51 [33-82]</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~time)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0.75 [0.11-0.858]</t>
+          <t>0.93 [0.4-0]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.42 [0.288-0.512]</t>
+          <t>0.05 [1-0]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.1 [0.081-0.32]</t>
+          <t>0.07 [0.1-0]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>572 [334-1063]</t>
+          <t>456 [456-456]</t>
         </is>
       </c>
       <c r="F35">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>249.3427489473684</v>
+        <v>221.1136037288136</v>
       </c>
       <c r="H35">
-        <v>32.53672478807638</v>
+        <v>19.65837999999999</v>
       </c>
       <c r="I35">
-        <v>5.881258413072995E-08</v>
+        <v>2.597853132379959E-05</v>
       </c>
       <c r="J35">
-        <v>-375.79481</v>
+        <v>-337.31779</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>55 [36-89]</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0.79 [0.724-0.841]</t>
+          <t>0.93 [0.4-0]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.11 [0.061-0.184]</t>
+          <t>0.05 [1-0]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.09 [0.056-0.313]</t>
+          <t>0.07 [0.1-0]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>495 [326-796]</t>
+          <t>462 [462-462]</t>
         </is>
       </c>
       <c r="F36">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G36">
-        <v>224.349534159292</v>
+        <v>221.6889337288136</v>
       </c>
       <c r="H36">
-        <v>7.543509999999998</v>
+        <v>20.23371</v>
       </c>
       <c r="I36">
-        <v>0.01572815917609725</v>
+        <v>1.948423113360663E-05</v>
       </c>
       <c r="J36">
-        <v>-346.27326</v>
+        <v>-336.74247</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>50 [33-81]</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0.8 [0.463-0.913]</t>
+          <t>0.79 [0.673-0.862]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.14 [0.059-0.25]</t>
+          <t>0.14 [0.046-0.271]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.09 [0.038-0.182]</t>
+          <t>0.09 [0.027-0.257]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>540 [342-907]</t>
+          <t>669 [371-1310]</t>
         </is>
       </c>
       <c r="F37">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G37">
-        <v>239.9811346153846</v>
+        <v>222.0827337288136</v>
       </c>
       <c r="H37">
-        <v>23.17511045609257</v>
+        <v>20.62751</v>
       </c>
       <c r="I37">
-        <v>6.343354534089296E-06</v>
+        <v>1.600186821103108E-05</v>
       </c>
       <c r="J37">
-        <v>-355.54023</v>
+        <v>-336.34867</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>48 [32-77]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0.9 [0.81-0.938]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.04 [0.027-0.074]</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.07 [0.031-0.189]</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>425 [287-673]</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>222.9426037288136</v>
+      </c>
+      <c r="H38">
+        <v>21.48738</v>
+      </c>
+      <c r="I38">
+        <v>1.041003743428214E-05</v>
+      </c>
+      <c r="J38">
+        <v>-335.48879</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>55 [36-90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0.8 [0.68-0.876]</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.1 [0.037-0.209]</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.07 [0.04-0.92]</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>922 [440-2113]</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>223.0650540336134</v>
+      </c>
+      <c r="H39">
+        <v>21.60983030479989</v>
+      </c>
+      <c r="I39">
+        <v>9.791800249575471E-06</v>
+      </c>
+      <c r="J39">
+        <v>-333.05101</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>50 [33-81]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0.79 [0.672-0.869]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.11 [0.041-0.234]</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.07 [0.038-0.591]</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>915 [441-2068]</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>223.1735840336135</v>
+      </c>
+      <c r="H40">
+        <v>21.71836030479989</v>
+      </c>
+      <c r="I40">
+        <v>9.274607840139041E-06</v>
+      </c>
+      <c r="J40">
+        <v>-332.94247</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>48 [32-76]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0.79 [0.645-0.87]</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.15 [0.049-0.265]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.07 [0.039-0.492]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>725 [385-1491]</t>
+        </is>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>223.2112018803419</v>
+      </c>
+      <c r="H41">
+        <v>21.75597815152832</v>
+      </c>
+      <c r="I41">
+        <v>9.101792779439704E-06</v>
+      </c>
+      <c r="J41">
+        <v>-337.57511</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>60 [39-98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0.93 [0.4-0]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0.05 [1-0]</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.07 [0.1-0]</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>455 [455-455]</t>
+        </is>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>223.4635318803419</v>
+      </c>
+      <c r="H42">
+        <v>22.00830815152833</v>
+      </c>
+      <c r="I42">
+        <v>8.022951750442873E-06</v>
+      </c>
+      <c r="J42">
+        <v>-337.32278</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>53 [32-93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0.9 [0.6-0]</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.04 [1-0]</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>423 [423-423]</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>224.5957533333333</v>
+      </c>
+      <c r="H43">
+        <v>23.14052960451977</v>
+      </c>
+      <c r="I43">
+        <v>4.554864015425208E-06</v>
+      </c>
+      <c r="J43">
+        <v>-329.24355</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>42 [42-42]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0.87 [0.653-0.944]</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.06 [0.029-0.134]</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.08 [0.037-0.26]</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>509 [333-824]</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>224.6124733333333</v>
+      </c>
+      <c r="H44">
+        <v>23.15724960451976</v>
+      </c>
+      <c r="I44">
+        <v>4.516944078443367E-06</v>
+      </c>
+      <c r="J44">
+        <v>-329.22683</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>56 [36-91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0.86 [0.712-0.932]</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.06 [0.029-0.129]</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.09 [0.034-0.291]</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>537 [350-871]</t>
+        </is>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>224.682844876033</v>
+      </c>
+      <c r="H45">
+        <v>23.22762114721948</v>
+      </c>
+      <c r="I45">
+        <v>4.360775484677228E-06</v>
+      </c>
+      <c r="J45">
+        <v>-326.91735</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>50 [33-81]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0.83 [0.72-0.897]</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.07 [0.029-0.185]</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.07 [0.033-0.49]</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1287 [544-3308]</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46">
+        <v>224.8602133333333</v>
+      </c>
+      <c r="H46">
+        <v>23.40498960451978</v>
+      </c>
+      <c r="I46">
+        <v>3.990696098064368E-06</v>
+      </c>
+      <c r="J46">
+        <v>-328.97909</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>42 [28-67]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0.79 [0.632-0.883]</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.13 [0.04-0.277]</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0 [0-0.289]</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>825 [410-1817]</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47">
+        <v>225.4517740336134</v>
+      </c>
+      <c r="H47">
+        <v>23.99655030479988</v>
+      </c>
+      <c r="I47">
+        <v>2.96888162961044E-06</v>
+      </c>
+      <c r="J47">
+        <v>-330.66428</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>61 [39-99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0.8 [0.692-0.873]</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0.11 [0.035-0.259]</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.08 [0.04-0.213]</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>987 [414-2644]</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <v>225.961244876033</v>
+      </c>
+      <c r="H48">
+        <v>24.50602114721949</v>
+      </c>
+      <c r="I48">
+        <v>2.301244135129263E-06</v>
+      </c>
+      <c r="J48">
+        <v>-325.63894</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>53 [33-91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0.87 [0.559-0.953]</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.05 [0.016-0.171]</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.08 [0.002-0.985]</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>526 [322-927]</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <v>226.0196533333333</v>
+      </c>
+      <c r="H49">
+        <v>24.56442960451977</v>
+      </c>
+      <c r="I49">
+        <v>2.235009941944707E-06</v>
+      </c>
+      <c r="J49">
+        <v>-327.81965</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>46 [46-46]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0.85 [0.623-0.928]</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.05 [0.03-0.091]</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.05 [0.026-0.105]</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>524 [336-869]</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50">
+        <v>226.1999633333333</v>
+      </c>
+      <c r="H50">
+        <v>24.74473960451976</v>
+      </c>
+      <c r="I50">
+        <v>2.042328699851295E-06</v>
+      </c>
+      <c r="J50">
+        <v>-327.63934</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>56 [36-92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0.86 [0.769-0.916]</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.07 [0.035-0.13]</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.09 [0.053-0.156]</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>592 [383-962]</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>226.2357432786885</v>
+      </c>
+      <c r="H51">
+        <v>24.78051954987498</v>
+      </c>
+      <c r="I51">
+        <v>2.006116379732014E-06</v>
+      </c>
+      <c r="J51">
+        <v>-323.16203</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>50 [33-81]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0.9 [0.6-0]</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0.04 [1-0]</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>428 [428-428]</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+      <c r="G52">
+        <v>226.2743540336134</v>
+      </c>
+      <c r="H52">
+        <v>24.81913030479987</v>
+      </c>
+      <c r="I52">
+        <v>1.967758989042117E-06</v>
+      </c>
+      <c r="J52">
+        <v>-329.8417</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>47 [31-74]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0.85 [0.711-0.93]</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0.06 [0.029-0.132]</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.08 [0.034-0.288]</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>539 [351-875]</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53">
+        <v>226.4932933333333</v>
+      </c>
+      <c r="H53">
+        <v>25.03806960451976</v>
+      </c>
+      <c r="I53">
+        <v>1.763720814003085E-06</v>
+      </c>
+      <c r="J53">
+        <v>-327.34602</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>99 [41-264]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0.84 [0.74-0.907]</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.08 [0.038-0.15]</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.09 [0.046-0.216]</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>569 [366-933]</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54">
+        <v>226.8371448760331</v>
+      </c>
+      <c r="H54">
+        <v>25.38192114721949</v>
+      </c>
+      <c r="I54">
+        <v>1.485126427513047E-06</v>
+      </c>
+      <c r="J54">
+        <v>-324.76304</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>95 [45-215]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0.86 [0.573-0.948]</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0.07 [0.024-0.167]</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.08 [0.019-0.352]</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>512 [334-831]</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55">
+        <v>226.8733940336134</v>
+      </c>
+      <c r="H55">
+        <v>25.41817030479987</v>
+      </c>
+      <c r="I55">
+        <v>1.458451601774742E-06</v>
+      </c>
+      <c r="J55">
+        <v>-329.24266</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>79 [39-178]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0.86 [0.692-0.934]</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.06 [0.028-0.136]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.09 [0.024-0.466]</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>539 [351-875]</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>226.8920533333333</v>
+      </c>
+      <c r="H56">
+        <v>25.43682960451977</v>
+      </c>
+      <c r="I56">
+        <v>1.444908035596179E-06</v>
+      </c>
+      <c r="J56">
+        <v>-326.94725</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>129 [54-331]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0.83 [0.72-0.897]</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.07 [0.029-0.185]</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.07 [0.034-0.489]</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1288 [546-3302]</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57">
+        <v>227.1389640336134</v>
+      </c>
+      <c r="H57">
+        <v>25.68374030479987</v>
+      </c>
+      <c r="I57">
+        <v>1.277098012441774E-06</v>
+      </c>
+      <c r="J57">
+        <v>-328.9771</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>92 [44-207]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0.86 [0.773-0.921]</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.07 [0.033-0.128]</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.09 [0.048-0.17]</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>602 [389-979]</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58">
+        <v>227.628214876033</v>
+      </c>
+      <c r="H58">
+        <v>26.17299114721948</v>
+      </c>
+      <c r="I58">
+        <v>9.999649056190168E-07</v>
+      </c>
+      <c r="J58">
+        <v>-323.97198</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>72 [38-149]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0.8 [0.695-0.88]</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.1 [0.032-0.255]</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.08 [0.028-0.367]</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>828 [357-2201]</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <v>227.6709833333333</v>
+      </c>
+      <c r="H59">
+        <v>26.21575960451977</v>
+      </c>
+      <c r="I59">
+        <v>9.788084409792094E-07</v>
+      </c>
+      <c r="J59">
+        <v>-326.16832</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>60 [38-97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0.87 [0.612-0.949]</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0.05 [0.018-0.156]</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.08 [0.003-0.974]</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>530 [331-910]</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60">
+        <v>227.7916540336134</v>
+      </c>
+      <c r="H60">
+        <v>26.33643030479988</v>
+      </c>
+      <c r="I60">
+        <v>9.214979985827352E-07</v>
+      </c>
+      <c r="J60">
+        <v>-328.3244</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>54 [35-88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0.91 [0.845-0.963]</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.06 [0.032-0.118]</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.03 [0.012-0.078]</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>476 [317-759]</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>227.8616833333333</v>
+      </c>
+      <c r="H61">
+        <v>26.40645960451977</v>
+      </c>
+      <c r="I61">
+        <v>8.897904231014338E-07</v>
+      </c>
+      <c r="J61">
+        <v>-325.97762</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>46 [46-46]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0.86 [0.769-0.916]</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0.07 [0.034-0.133]</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.09 [0.052-0.157]</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>596 [385-969]</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>228.130604876033</v>
+      </c>
+      <c r="H62">
+        <v>26.67538114721947</v>
+      </c>
+      <c r="I62">
+        <v>7.778433730979772E-07</v>
+      </c>
+      <c r="J62">
+        <v>-323.46958</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>57 [37-93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0.88 [0.651-0.949]</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0.05 [0.02-0.13]</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.08 [0.004-0.983]</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>522 [326-895]</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63">
+        <v>228.2497240336134</v>
+      </c>
+      <c r="H63">
+        <v>26.79450030479987</v>
+      </c>
+      <c r="I63">
+        <v>7.328680010117666E-07</v>
+      </c>
+      <c r="J63">
+        <v>-327.86634</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>54 [35-88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0.84 [0.741-0.907]</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0.08 [0.037-0.152]</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.09 [0.045-0.226]</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>573 [369-942]</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>228.7197033333333</v>
+      </c>
+      <c r="H64">
+        <v>27.26447960451978</v>
+      </c>
+      <c r="I64">
+        <v>5.793900749629684E-07</v>
+      </c>
+      <c r="J64">
+        <v>-325.1196</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>51 [33-83]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0.85 [0.694-0.933]</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0.06 [0.028-0.138]</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.09 [0.025-0.494]</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>541 [352-880]</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65">
+        <v>228.7345740336134</v>
+      </c>
+      <c r="H65">
+        <v>27.27935030479986</v>
+      </c>
+      <c r="I65">
+        <v>5.750980828932154E-07</v>
+      </c>
+      <c r="J65">
+        <v>-327.38148</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>52 [34-84]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0.84 [0.741-0.912]</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0.07 [0.035-0.151]</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.09 [0.042-0.221]</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>576 [369-947]</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <v>228.8490133333333</v>
+      </c>
+      <c r="H66">
+        <v>27.39378960451978</v>
+      </c>
+      <c r="I66">
+        <v>5.431149301840942E-07</v>
+      </c>
+      <c r="J66">
+        <v>-324.9903</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>51 [34-83]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0.84 [0.722-0.918]</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0.05 [0.027-0.098]</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.02 [0.003-0.137]</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>486 [319-789]</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="G67">
+        <v>229.1407740336134</v>
+      </c>
+      <c r="H67">
+        <v>27.68555030479988</v>
+      </c>
+      <c r="I67">
+        <v>4.693931100932574E-07</v>
+      </c>
+      <c r="J67">
+        <v>-326.97528</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>50 [33-81]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0.85 [0.732-0.927]</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0.05 [0.026-0.09]</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.02 [0.003-0.166]</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>484 [315-792]</t>
+        </is>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68">
+        <v>229.2762333333333</v>
+      </c>
+      <c r="H68">
+        <v>27.82100960451976</v>
+      </c>
+      <c r="I68">
+        <v>4.386540034718934E-07</v>
+      </c>
+      <c r="J68">
+        <v>-324.56307</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>52 [34-85]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0.86 [0.774-0.92]</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0.07 [0.032-0.13]</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.09 [0.047-0.173]</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>607 [392-989]</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69">
+        <v>229.4708433333333</v>
+      </c>
+      <c r="H69">
+        <v>28.01561960451977</v>
+      </c>
+      <c r="I69">
+        <v>3.9798167254219E-07</v>
+      </c>
+      <c r="J69">
+        <v>-324.36847</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>52 [34-84]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0.87 [0.651-0.95]</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0.05 [0.021-0.13]</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.08 [0.004-0.98]</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>526 [331-895]</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70">
+        <v>230.0624237288136</v>
+      </c>
+      <c r="H70">
+        <v>28.60720000000001</v>
+      </c>
+      <c r="I70">
+        <v>2.96075875491371E-07</v>
+      </c>
+      <c r="J70">
+        <v>-328.36897</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>50 [32-83]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0.85 [0.742-0.912]</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0.07 [0.034-0.153]</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.09 [0.041-0.231]</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>580 [372-956]</t>
+        </is>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71">
+        <v>230.7444340336134</v>
+      </c>
+      <c r="H71">
+        <v>29.28921030479987</v>
+      </c>
+      <c r="I71">
+        <v>2.105263040546424E-07</v>
+      </c>
+      <c r="J71">
+        <v>-325.37162</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>58 [37-95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0.91 [0.6-0]</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0.04 [1-0]</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>431 [431-431]</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+      <c r="G72">
+        <v>233.8387548760331</v>
+      </c>
+      <c r="H72">
+        <v>32.38353114721949</v>
+      </c>
+      <c r="I72">
+        <v>4.481084490890725E-08</v>
+      </c>
+      <c r="J72">
+        <v>-317.76143</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>52 [33-90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0.88 [0.746-0.949]</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0.04 [0.023-0.081]</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01 [0-0.855]</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>481 [311-798]</t>
+        </is>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="G73">
+        <v>235.158834876033</v>
+      </c>
+      <c r="H73">
+        <v>33.70361114721948</v>
+      </c>
+      <c r="I73">
+        <v>2.315961858759795E-08</v>
+      </c>
+      <c r="J73">
+        <v>-316.44135</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>42 [29-67]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0.87 [0.74-0.947]</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0.05 [0.023-0.086]</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.01 [0-0.724]</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>488 [316-804]</t>
+        </is>
+      </c>
+      <c r="F74">
+        <v>7</v>
+      </c>
+      <c r="G74">
+        <v>236.5173133333333</v>
+      </c>
+      <c r="H74">
+        <v>35.06208960451977</v>
+      </c>
+      <c r="I74">
+        <v>1.174198588252194E-08</v>
+      </c>
+      <c r="J74">
+        <v>-317.32199</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>52 [34-84]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0.84 [0.708-0.919]</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0.05 [0.027-0.099]</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.05 [0.02-0.118]</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>544 [349-900]</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75">
+        <v>237.152444876033</v>
+      </c>
+      <c r="H75">
+        <v>35.69722114721947</v>
+      </c>
+      <c r="I75">
+        <v>8.547212308419887E-09</v>
+      </c>
+      <c r="J75">
+        <v>-314.44774</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>51 [33-83]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0.83 [0.702-0.916]</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0.05 [0.027-0.104]</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.05 [0.019-0.117]</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>540 [348-888]</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76">
+        <v>238.6242833333333</v>
+      </c>
+      <c r="H76">
+        <v>37.16905960451976</v>
+      </c>
+      <c r="I76">
+        <v>4.094669293087947E-09</v>
+      </c>
+      <c r="J76">
+        <v>-315.21502</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>50 [33-81]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0.87 [0.735-0.94]</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0.05 [0.025-0.085]</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.03 [0.004-0.174]</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>514 [327-863]</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>240.5256732786885</v>
+      </c>
+      <c r="H77">
+        <v>39.07044954987498</v>
+      </c>
+      <c r="I77">
+        <v>1.582476432986329E-09</v>
+      </c>
+      <c r="J77">
+        <v>-308.8721</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>58 [37-96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0.86 [0.729-0.938]</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0.05 [0.024-0.089]</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.03 [0.004-0.167]</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>516 [330-859]</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78">
+        <v>242.187594876033</v>
+      </c>
+      <c r="H78">
+        <v>40.73237114721948</v>
+      </c>
+      <c r="I78">
+        <v>6.893750502965947E-10</v>
+      </c>
+      <c r="J78">
+        <v>-309.41259</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>53 [33-90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0.92 [0.891-0.948]</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0.04 [0.023-0.071]</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>624 [400-1022]</t>
+        </is>
+      </c>
+      <c r="F79">
+        <v>7</v>
+      </c>
+      <c r="G79">
+        <v>242.6404733333333</v>
+      </c>
+      <c r="H79">
+        <v>41.18524960451978</v>
+      </c>
+      <c r="I79">
+        <v>5.496854658221972E-10</v>
+      </c>
+      <c r="J79">
+        <v>-311.19883</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>46 [46-46]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0.9 [0.733-0.97]</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0.08 [0.042-0.155]</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.1 [0.095-0.1]</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>787 [494-1305]</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="G80">
+        <v>243.0006132786885</v>
+      </c>
+      <c r="H80">
+        <v>41.54538954987498</v>
+      </c>
+      <c r="I80">
+        <v>4.591037694030161E-10</v>
+      </c>
+      <c r="J80">
+        <v>-306.39717</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>52 [34-85]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0.93 [0.898-0.953]</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0.04 [0.023-0.066]</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>602 [388-983]</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81">
+        <v>243.056294876033</v>
+      </c>
+      <c r="H81">
+        <v>41.60107114721947</v>
+      </c>
+      <c r="I81">
+        <v>4.464982419770958E-10</v>
+      </c>
+      <c r="J81">
+        <v>-308.5439</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>52 [34-84]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0.86 [0.552-0.952]</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0.07 [0.033-0.141]</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.1 [0.088-0.103]</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>785 [494-1296]</t>
+        </is>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+      <c r="G82">
+        <v>243.0803633333333</v>
+      </c>
+      <c r="H82">
+        <v>41.62513960451977</v>
+      </c>
+      <c r="I82">
+        <v>4.411571822668634E-10</v>
+      </c>
+      <c r="J82">
+        <v>-310.75894</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>50 [32-83]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0.87 [0.67-0.956]</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0.07 [0.037-0.144]</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.1 [0.092-0.101]</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>798 [505-1310]</t>
+        </is>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83">
+        <v>243.296614876033</v>
+      </c>
+      <c r="H83">
+        <v>41.84139114721947</v>
+      </c>
+      <c r="I83">
+        <v>3.959450594898841E-10</v>
+      </c>
+      <c r="J83">
+        <v>-308.30357</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>83 [36-220]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0.9 [0.731-0.968]</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0.07 [0.031-0.155]</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.1 [0.088-0.103]</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>784 [494-1293]</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+      <c r="G84">
+        <v>243.4202548760331</v>
+      </c>
+      <c r="H84">
+        <v>41.96503114721949</v>
+      </c>
+      <c r="I84">
+        <v>3.722089771104736E-10</v>
+      </c>
+      <c r="J84">
+        <v>-308.17993</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>92 [44-211]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0.88 [0.643-0.966]</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0.07 [0.029-0.159]</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.1 [0.086-0.105]</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>782 [491-1294]</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>7</v>
+      </c>
+      <c r="G85">
+        <v>245.0241833333333</v>
+      </c>
+      <c r="H85">
+        <v>43.56895960451976</v>
+      </c>
+      <c r="I85">
+        <v>1.669160905446889E-10</v>
+      </c>
+      <c r="J85">
+        <v>-308.81512</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>70 [40-134]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0.93 [0.902-0.948]</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0.04 [0.029-0.052]</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>615 [409-963]</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>245.6746532786885</v>
+      </c>
+      <c r="H86">
+        <v>44.21942954987497</v>
+      </c>
+      <c r="I86">
+        <v>1.205731064670492E-10</v>
+      </c>
+      <c r="J86">
+        <v>-303.72312</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>129 [55-330]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0.93 [0.893-0.948]</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0.04 [0.023-0.068]</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>628 [403-1027]</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+      <c r="G87">
+        <v>246.491324876033</v>
+      </c>
+      <c r="H87">
+        <v>45.03610114721948</v>
+      </c>
+      <c r="I87">
+        <v>8.015164981751888E-11</v>
+      </c>
+      <c r="J87">
+        <v>-305.10886</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>67 [37-131]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0.95 [0.918-0.968]</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0.03 [0.021-0.058]</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0 [0-1]</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>544 [355-881]</t>
+        </is>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>252.9542332786885</v>
+      </c>
+      <c r="H88">
+        <v>51.49900954987498</v>
+      </c>
+      <c r="I88">
+        <v>3.165991452384252E-12</v>
+      </c>
+      <c r="J88">
+        <v>-296.44354</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>72 [38-149]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0.94 [0.915-0.963]</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0.04 [0.022-0.057]</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0 [0-1]</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>563 [366-911]</t>
+        </is>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>253.0424632520325</v>
+      </c>
+      <c r="H89">
+        <v>51.58723952321895</v>
+      </c>
+      <c r="I89">
+        <v>3.029359693667761E-12</v>
+      </c>
+      <c r="J89">
+        <v>-294.18871</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>57 [37-94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0.95 [0.914-0.966]</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0.04 [0.021-0.061]</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>553 [360-897]</t>
+        </is>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90">
+        <v>254.112534876033</v>
+      </c>
+      <c r="H90">
+        <v>52.65731114721947</v>
+      </c>
+      <c r="I90">
+        <v>1.774139404765144E-12</v>
+      </c>
+      <c r="J90">
+        <v>-297.48765</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>54 [35-88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0.94 [0.911-0.961]</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0.04 [0.022-0.061]</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>572 [371-928]</t>
+        </is>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+      <c r="G91">
+        <v>254.3844032786885</v>
+      </c>
+      <c r="H91">
+        <v>52.92917954987496</v>
+      </c>
+      <c r="I91">
+        <v>1.548646403982024E-12</v>
+      </c>
+      <c r="J91">
+        <v>-295.01338</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>46 [46-46]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/population_models/models_summary_kriegberg_male.xlsx
+++ b/data/population_models/models_summary_kriegberg_male.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>56 [37-91]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>51 [33-86]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>43 [43-43]</t>
+          <t>3 [3-3]</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>54 [36-88]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>54 [35-90]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>52 [34-87]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>55 [36-90]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>54 [35-89]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>47 [31-75]</t>
+          <t>3 [2-6]</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>62 [41-96]</t>
+          <t>5 [3-7]</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>48 [31-80]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>42 [42-42]</t>
+          <t>3 [3-3]</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>60 [39-98]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>48 [32-79]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>42 [42-42]</t>
+          <t>3 [3-3]</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>63 [40-103]</t>
+          <t>5 [3-8]</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>49 [32-80]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>43 [43-43]</t>
+          <t>3 [3-3]</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>62 [40-102]</t>
+          <t>5 [3-8]</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>49 [32-79]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>42 [28-67]</t>
+          <t>3 [2-5]</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>79 [49-130]</t>
+          <t>6 [4-10]</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>80 [50-131]</t>
+          <t>6 [4-10]</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>78 [49-130]</t>
+          <t>6 [4-10]</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>78 [49-129]</t>
+          <t>6 [4-10]</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>78 [49-129]</t>
+          <t>6 [4-10]</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>82 [41-182]</t>
+          <t>6 [3-13]</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>57 [37-93]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>52 [33-86]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>48 [32-76]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>59 [38-96]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>54 [35-87]</t>
+          <t>4 [3-6]</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>51 [33-82]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>55 [36-89]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>50 [33-81]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>48 [32-77]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>55 [36-90]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>50 [33-81]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>48 [32-76]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>60 [39-98]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>53 [32-93]</t>
+          <t>4 [2-7]</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>42 [42-42]</t>
+          <t>3 [3-3]</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>56 [36-91]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>50 [33-81]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>42 [28-67]</t>
+          <t>3 [2-5]</t>
         </is>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>61 [39-99]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>53 [33-91]</t>
+          <t>4 [2-7]</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>46 [46-46]</t>
+          <t>3 [3-3]</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>56 [36-92]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>50 [33-81]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>47 [31-74]</t>
+          <t>3 [2-6]</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>99 [41-264]</t>
+          <t>7 [3-20]</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>95 [45-215]</t>
+          <t>7 [3-16]</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>79 [39-178]</t>
+          <t>6 [3-13]</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>129 [54-331]</t>
+          <t>10 [4-25]</t>
         </is>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>92 [44-207]</t>
+          <t>7 [3-15]</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>72 [38-149]</t>
+          <t>5 [3-11]</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>60 [38-97]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>54 [35-88]</t>
+          <t>4 [3-6]</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>46 [46-46]</t>
+          <t>3 [3-3]</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>57 [37-93]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>54 [35-88]</t>
+          <t>4 [3-6]</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>51 [33-83]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>52 [34-84]</t>
+          <t>4 [3-6]</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>51 [34-83]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>50 [33-81]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>52 [34-85]</t>
+          <t>4 [3-6]</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>52 [34-84]</t>
+          <t>4 [3-6]</t>
         </is>
       </c>
     </row>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>50 [32-83]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>58 [37-95]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>52 [33-90]</t>
+          <t>4 [2-7]</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>42 [29-67]</t>
+          <t>3 [2-5]</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>52 [34-84]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>51 [33-83]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>50 [33-81]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>58 [37-96]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>53 [33-90]</t>
+          <t>4 [2-7]</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>46 [46-46]</t>
+          <t>3 [3-3]</t>
         </is>
       </c>
     </row>
@@ -4123,7 +4123,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>52 [34-85]</t>
+          <t>4 [3-6]</t>
         </is>
       </c>
     </row>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>52 [34-84]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>50 [32-83]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>83 [36-220]</t>
+          <t>6 [3-16]</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>92 [44-211]</t>
+          <t>7 [3-16]</t>
         </is>
       </c>
     </row>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>70 [40-134]</t>
+          <t>5 [3-10]</t>
         </is>
       </c>
     </row>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>129 [55-330]</t>
+          <t>10 [4-24]</t>
         </is>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>67 [37-131]</t>
+          <t>5 [3-10]</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>72 [38-149]</t>
+          <t>5 [3-11]</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>57 [37-94]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>54 [35-88]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>46 [46-46]</t>
+          <t>3 [3-3]</t>
         </is>
       </c>
     </row>

--- a/data/population_models/models_summary_kriegberg_male.xlsx
+++ b/data/population_models/models_summary_kriegberg_male.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,50 +365,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Phi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pent</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>npar</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AICc</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>DeltaAICc</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>weight</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Deviance</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ind_per_ha</t>
         </is>
@@ -420,44 +425,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2">
+        <v>39</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>0.9 [0.838-0.953]</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>0.09 [0.044-0.163]</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>0.09 [0.059-0.128]</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>475 [315-761]</t>
         </is>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>201.4552237288136</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.4823669828846306</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-356.97617</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>48 [32-76]</t>
         </is>
       </c>
     </row>
@@ -467,44 +475,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3">
+        <v>69</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>0.9 [0.833-0.955]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>0.09 [0.045-0.171]</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>0.09 [0.044-0.183]</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>503 [324-833]</t>
         </is>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>202.8881118803419</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.432888151528317</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.2356296102047661</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-357.8982</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>50 [32-83]</t>
         </is>
       </c>
     </row>
@@ -514,44 +525,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>0.88 [0.771-0.949]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>0.08 [0.039-0.169]</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>0.08 [0.054-0.135]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>467 [311-745]</t>
         </is>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>203.5945418803419</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.139318151528329</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.1655124012222947</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-357.19177</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>3 [3-3]</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>47 [31-74]</t>
         </is>
       </c>
     </row>
@@ -561,44 +575,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5">
+        <v>81</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>0.9 [0.83-0.957]</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>0.09 [0.042-0.181]</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>0.09 [0.042-0.188]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>498 [321-827]</t>
         </is>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>11</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>205.2442520689655</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3.789028340151958</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.07254383715556603</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-357.93758</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>50 [32-83]</t>
         </is>
       </c>
     </row>
@@ -608,44 +625,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>0.89 [0.707-0.938]</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>0.05 [0.026-0.087]</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>0.07 [0.009-0.981]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>420 [282-670]</t>
         </is>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>9</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>207.8367837288136</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>6.381560000000007</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.01984446644251174</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-350.59461</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>42 [28-67]</t>
         </is>
       </c>
     </row>
@@ -655,44 +675,47 @@
           <t>Phi(~1)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7">
+        <v>64</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>0.81 [0.733-0.876]</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>0.1 [0.052-0.182]</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>0.09 [0.055-0.191]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>519 [338-843]</t>
         </is>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>7</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>211.0606633333333</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>9.605439604519773</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.003958975965961492</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-342.77864</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>52 [34-84]</t>
         </is>
       </c>
     </row>
@@ -702,44 +725,47 @@
           <t>Phi(~1)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8">
+        <v>67</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>0.81 [0.728-0.87]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>0.1 [0.053-0.19]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>0.09 [0.056-0.181]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>524 [342-852]</t>
         </is>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>8</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>211.6109540336134</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>10.15573030479987</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.003006690725581729</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-344.50511</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>52 [34-85]</t>
         </is>
       </c>
     </row>
@@ -749,44 +775,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9">
+        <v>66</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>0.84 [0.607-0.922]</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>0.09 [0.045-0.185]</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>0.09 [0.05-0.208]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>502 [329-813]</t>
         </is>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>9</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>212.0566637288136</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>10.60144</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.002406047114941718</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-346.37473</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>50 [33-81]</t>
         </is>
       </c>
     </row>
@@ -796,44 +825,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>0.9 [0.5-0]</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>0.04 [1-0]</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>417 [417-417]</t>
         </is>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>8</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>212.5998140336134</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>11.14459030479986</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.001833836182326096</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-343.51625</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>3 [2-6]</t>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>42 [42-42]</t>
         </is>
       </c>
     </row>
@@ -843,44 +875,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11">
+        <v>36</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>0.85 [0.599-0.929]</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>0.07 [0.037-0.135]</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>0.09 [0.055-0.155]</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>482 [320-771]</t>
         </is>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>8</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>212.6593240336134</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>11.20410030479988</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.001780074197156182</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-343.45674</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>5 [3-7]</t>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>48 [32-77]</t>
         </is>
       </c>
     </row>
@@ -890,44 +925,47 @@
           <t>Phi(~Time)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12">
+        <v>65</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>0.82 [0.691-0.9]</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>0.09 [0.046-0.177]</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>0.09 [0.05-0.263]</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>514 [337-832]</t>
         </is>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>8</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>212.7053640336134</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>11.25014030479988</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.001739564939566861</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-343.41069</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>51 [34-83]</t>
         </is>
       </c>
     </row>
@@ -937,44 +975,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>0.89 [0.713-0.944]</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>0.05 [0.025-0.085]</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>423 [285-671]</t>
         </is>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>9</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>213.1537737288136</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>11.69855000000001</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.001390175780072264</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-345.27762</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>3 [3-3]</t>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>42 [28-67]</t>
         </is>
       </c>
     </row>
@@ -984,44 +1025,47 @@
           <t>Phi(~Time)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14">
+        <v>68</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>0.81 [0.688-0.894]</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>0.1 [0.048-0.184]</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>0.09 [0.051-0.229]</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>520 [340-842]</t>
         </is>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>9</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>213.2427537288136</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>11.78753</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.001329682510238859</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-345.18865</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>52 [34-84]</t>
         </is>
       </c>
     </row>
@@ -1031,44 +1075,47 @@
           <t>Phi(~1)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15">
+        <v>73</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>0.81 [0.732-0.876]</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>0.1 [0.05-0.188]</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>0.09 [0.053-0.201]</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>517 [337-842]</t>
         </is>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>8</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>213.2902140336134</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>11.83499030479987</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.001298500383200642</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-342.82584</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>52 [34-84]</t>
         </is>
       </c>
     </row>
@@ -1078,44 +1125,47 @@
           <t>Phi(~1)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16">
+        <v>79</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>0.81 [0.727-0.87]</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>0.1 [0.051-0.196]</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>0.09 [0.053-0.187]</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>522 [340-850]</t>
         </is>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>9</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>213.7990137288136</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>12.34379000000001</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.001006833441771545</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-344.63239</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>3 [3-3]</t>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>52 [34-85]</t>
         </is>
       </c>
     </row>
@@ -1125,44 +1175,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17">
+        <v>75</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>0.84 [0.588-0.925]</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>0.09 [0.041-0.193]</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>0.09 [0.047-0.215]</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>501 [328-810]</t>
         </is>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>10</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>214.3622218803419</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>12.90699815152831</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.0007597287053050968</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-346.4241</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>5 [3-8]</t>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>50 [33-81]</t>
         </is>
       </c>
     </row>
@@ -1172,44 +1225,47 @@
           <t>Phi(~Time)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18">
+        <v>74</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>0.82 [0.685-0.902]</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>0.09 [0.043-0.182]</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>0.09 [0.046-0.286]</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>511 [334-827]</t>
         </is>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>9</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>214.8212237288136</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>13.36600000000001</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.0006039313174349206</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-343.61017</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>51 [33-83]</t>
         </is>
       </c>
     </row>
@@ -1219,44 +1275,47 @@
           <t>Phi(~Time)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19">
+        <v>35</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>0.83 [0.7-0.908]</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>0.08 [0.039-0.149]</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>0.09 [0.057-0.151]</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>504 [332-810]</t>
         </is>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>7</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>215.1235033333333</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>13.66827960451977</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.0005192163607498475</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-338.71581</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>3 [3-3]</t>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>50 [33-81]</t>
         </is>
       </c>
     </row>
@@ -1266,44 +1325,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20">
+        <v>80</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>0.81 [0.682-0.895]</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>0.09 [0.044-0.189]</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>0.09 [0.047-0.251]</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>515 [337-835]</t>
         </is>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>10</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>215.2529318803419</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>13.79770815152833</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.0004866797955601426</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-345.53338</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>5 [3-8]</t>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>52 [34-84]</t>
         </is>
       </c>
     </row>
@@ -1313,44 +1375,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21">
+        <v>84</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>0.78 [0.672-0.85]</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>0.14 [0.07-0.247]</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>0.02 [0.011-0.048]</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>703 [396-1340]</t>
         </is>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>9</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>215.5065137288136</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>14.05128999999999</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.000428724910341061</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-342.92488</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>70 [40-134]</t>
         </is>
       </c>
     </row>
@@ -1360,44 +1425,47 @@
           <t>Phi(~Time)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22">
+        <v>44</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>0.83 [0.702-0.912]</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>0.07 [0.035-0.147]</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>0.09 [0.052-0.161]</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>504 [332-811]</t>
         </is>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>8</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>215.7008240336134</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>14.24560030479986</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.0003890315035048822</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-340.41523</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>3 [2-5]</t>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>50 [33-81]</t>
         </is>
       </c>
     </row>
@@ -1407,44 +1475,47 @@
           <t>Phi(~Time)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23">
+        <v>38</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>0.82 [0.689-0.904]</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>0.08 [0.039-0.159]</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>0.09 [0.058-0.149]</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>502 [331-809]</t>
         </is>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>8</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>216.4324440336135</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>14.97722030479989</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.0002698457032526875</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-339.68361</v>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>6 [4-10]</t>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>50 [33-81]</t>
         </is>
       </c>
     </row>
@@ -1454,44 +1525,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>0.82 [0.689-0.908]</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>0.08 [0.036-0.158]</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>0.09 [0.052-0.158]</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>503 [331-812]</t>
         </is>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>9</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>216.5005537288136</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>15.04533000000001</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.0002608108621707559</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-341.93084</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>6 [4-10]</t>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>50 [33-81]</t>
         </is>
       </c>
     </row>
@@ -1501,44 +1575,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>0.89 [0.837-0.952]</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>0.08 [0.038-0.141]</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>0.04 [0.022-0.073]</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>471 [314-748]</t>
         </is>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>8</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>218.8620140336134</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>17.40679030479987</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>8.00831384932794E-05</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-337.25404</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>6 [4-10]</t>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>47 [31-75]</t>
         </is>
       </c>
     </row>
@@ -1548,44 +1625,47 @@
           <t>Phi(~1)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26">
+        <v>34</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>0.85 [0.761-0.904]</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>0.08 [0.041-0.153]</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>0.09 [0.063-0.137]</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>548 [356-892]</t>
         </is>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>6</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>219.016194876033</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>17.56097114721948</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>7.414146111218157E-05</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-332.58399</v>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>6 [4-10]</t>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>55 [36-89]</t>
         </is>
       </c>
     </row>
@@ -1595,44 +1675,47 @@
           <t>Phi(~1)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27">
+        <v>43</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>0.85 [0.763-0.905]</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>0.08 [0.038-0.152]</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>0.09 [0.06-0.14]</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>560 [362-913]</t>
         </is>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>7</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>219.3128433333333</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>17.85761960451978</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>6.392117453408076E-05</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-334.52646</v>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>6 [4-10]</t>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>56 [36-91]</t>
         </is>
       </c>
     </row>
@@ -1642,44 +1725,47 @@
           <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28">
+        <v>60</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>0.93 [0.2-0]</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>0.05 [1-0]</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>0.07 [0.1-0]</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>458 [458-458]</t>
         </is>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>8</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>219.4146640336134</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>17.95944030479987</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>6.074837459427947E-05</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-336.70139</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>6 [3-13]</t>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>46 [46-46]</t>
         </is>
       </c>
     </row>
@@ -1689,44 +1775,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29">
+        <v>54</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>0.81 [0.681-0.887]</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>0.1 [0.042-0.203]</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>0.06 [0.029-0.289]</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>788 [387-1775]</t>
         </is>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>8</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>220.2306640336134</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>18.77544030479987</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>4.03963860279872E-05</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-335.8854</v>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>79 [39-178]</t>
         </is>
       </c>
     </row>
@@ -1736,44 +1825,47 @@
           <t>Phi(~1)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30">
+        <v>49</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>0.84 [0.76-0.903]</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>0.08 [0.038-0.157]</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>0.09 [0.059-0.139]</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>564 [364-924]</t>
         </is>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>8</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>220.4162740336134</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>18.96105030479987</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>3.681610282428589E-05</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-335.69978</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>56 [36-92]</t>
         </is>
       </c>
     </row>
@@ -1783,44 +1875,47 @@
           <t>Phi(~1)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31">
+        <v>37</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>0.84 [0.759-0.902]</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>0.08 [0.04-0.159]</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>0.09 [0.063-0.137]</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>550 [356-896]</t>
         </is>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>7</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>220.6153033333333</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>19.16007960451978</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>3.332875961491427E-05</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-333.224</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>55 [36-90]</t>
         </is>
       </c>
     </row>
@@ -1830,44 +1925,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32">
+        <v>42</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>0.9 [0.6-0]</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>0.04 [1-0]</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>0.07 [0.1-0]</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>425 [425-425]</t>
         </is>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>8</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>220.6268940336134</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>19.17167030479987</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>3.313616639482223E-05</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-335.48916</v>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>42 [42-42]</t>
         </is>
       </c>
     </row>
@@ -1877,44 +1975,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33">
+        <v>57</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>0.79 [0.645-0.87]</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>0.15 [0.049-0.265]</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>0.07 [0.038-0.492]</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>725 [385-1491]</t>
         </is>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>9</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>220.8558037288136</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>19.40057999999999</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>2.955256312333689E-05</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-337.57559</v>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>4 [3-6]</t>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>72 [38-149]</t>
         </is>
       </c>
     </row>
@@ -1924,44 +2025,47 @@
           <t>Phi(~Time)p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34">
+        <v>53</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>0.79 [0.694-0.864]</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>0.1 [0.044-0.206]</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>0.07 [0.038-0.49]</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>948 [454-2154]</t>
         </is>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>7</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>221.0454433333333</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>19.59021960451977</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>2.687914417318939E-05</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-332.79386</v>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>95 [45-215]</t>
         </is>
       </c>
     </row>
@@ -1971,44 +2075,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35">
+        <v>48</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>0.93 [0.4-0]</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>0.05 [1-0]</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>0.07 [0.1-0]</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>456 [456-456]</t>
         </is>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>9</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>221.1136037288136</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>19.65837999999999</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>2.597853132379959E-05</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>-337.31779</v>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>46 [46-46]</t>
         </is>
       </c>
     </row>
@@ -2018,44 +2125,47 @@
           <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36">
+        <v>90</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>0.93 [0.4-0]</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>0.05 [1-0]</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>0.07 [0.1-0]</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>462 [462-462]</t>
         </is>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>9</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>221.6889337288136</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>20.23371</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>1.948423113360663E-05</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-336.74247</v>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>46 [46-46]</t>
         </is>
       </c>
     </row>
@@ -2065,44 +2175,47 @@
           <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37">
+        <v>86</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>0.79 [0.673-0.862]</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>0.14 [0.046-0.271]</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>0.09 [0.027-0.257]</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>669 [371-1310]</t>
         </is>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>9</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>222.0827337288136</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>20.62751</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>1.600186821103108E-05</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>-336.34867</v>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>67 [37-131]</t>
         </is>
       </c>
     </row>
@@ -2112,44 +2225,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38">
+        <v>72</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>0.9 [0.81-0.938]</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>0.04 [0.027-0.074]</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>0.07 [0.031-0.189]</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>425 [287-673]</t>
         </is>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>9</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>222.9426037288136</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>21.48738</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>1.041003743428214E-05</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>-335.48879</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>42 [29-67]</t>
         </is>
       </c>
     </row>
@@ -2159,44 +2275,47 @@
           <t>Phi(~Time)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39">
+        <v>83</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>0.8 [0.68-0.876]</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>0.1 [0.037-0.209]</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>0.07 [0.04-0.92]</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>922 [440-2113]</t>
         </is>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>8</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>223.0650540336134</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>21.60983030479989</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>9.791800249575471E-06</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>-333.05101</v>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>92 [44-211]</t>
         </is>
       </c>
     </row>
@@ -2206,44 +2325,47 @@
           <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40">
+        <v>56</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>0.79 [0.672-0.869]</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>0.11 [0.041-0.234]</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>0.07 [0.038-0.591]</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>915 [441-2068]</t>
         </is>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>8</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>223.1735840336135</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>21.71836030479989</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>9.274607840139041E-06</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>-332.94247</v>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>92 [44-207]</t>
         </is>
       </c>
     </row>
@@ -2253,44 +2375,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41">
+        <v>87</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>0.79 [0.645-0.87]</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>0.15 [0.049-0.265]</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>0.07 [0.039-0.492]</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>725 [385-1491]</t>
         </is>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>10</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>223.2112018803419</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>21.75597815152832</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>9.101792779439704E-06</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>-337.57511</v>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>72 [38-149]</t>
         </is>
       </c>
     </row>
@@ -2300,44 +2425,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42">
+        <v>78</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>0.93 [0.4-0]</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>0.05 [1-0]</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>0.07 [0.1-0]</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>455 [455-455]</t>
         </is>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>10</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>223.4635318803419</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>22.00830815152833</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>8.022951750442873E-06</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>-337.32278</v>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>4 [2-7]</t>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>46 [46-46]</t>
         </is>
       </c>
     </row>
@@ -2347,44 +2475,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>0.9 [0.6-0]</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>0.04 [1-0]</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>423 [423-423]</t>
         </is>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>7</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>224.5957533333333</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>23.14052960451977</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>4.554864015425208E-06</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>-329.24355</v>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>3 [3-3]</t>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>42 [42-42]</t>
         </is>
       </c>
     </row>
@@ -2394,44 +2525,47 @@
           <t>Phi(~Time + I(Time^2))p(~1)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44">
+        <v>33</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>0.87 [0.653-0.944]</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>0.06 [0.029-0.134]</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>0.08 [0.037-0.26]</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>509 [333-824]</t>
         </is>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>7</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>224.6124733333333</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>23.15724960451976</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>4.516944078443367E-06</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>-329.22683</v>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>51 [33-82]</t>
         </is>
       </c>
     </row>
@@ -2441,44 +2575,47 @@
           <t>Phi(~Time)p(~1)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45">
+        <v>32</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>0.86 [0.712-0.932]</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>0.06 [0.029-0.129]</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>0.09 [0.034-0.291]</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>537 [350-871]</t>
         </is>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>6</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>224.682844876033</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>23.22762114721948</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>4.360775484677228E-06</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>-326.91735</v>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>54 [35-87]</t>
         </is>
       </c>
     </row>
@@ -2488,44 +2625,47 @@
           <t>Phi(~1)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46">
+        <v>55</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>0.83 [0.72-0.897]</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>0.07 [0.029-0.185]</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>0.07 [0.033-0.49]</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1287 [544-3308]</t>
         </is>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>7</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>224.8602133333333</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>23.40498960451978</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>3.990696098064368E-06</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>-328.97909</v>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>3 [2-5]</t>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>129 [54-331]</t>
         </is>
       </c>
     </row>
@@ -2535,44 +2675,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47">
+        <v>27</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>0.79 [0.632-0.883]</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>0.13 [0.04-0.277]</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>0 [0-0.289]</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>825 [410-1817]</t>
         </is>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>8</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>225.4517740336134</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>23.99655030479988</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>2.96888162961044E-06</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>-330.66428</v>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>82 [41-182]</t>
         </is>
       </c>
     </row>
@@ -2582,44 +2725,47 @@
           <t>Phi(~1)p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48">
+        <v>52</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>0.8 [0.692-0.873]</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>0.11 [0.035-0.259]</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>0.08 [0.04-0.213]</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>987 [414-2644]</t>
         </is>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>6</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>225.961244876033</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>24.50602114721949</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>2.301244135129263E-06</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>-325.63894</v>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>4 [2-7]</t>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>99 [41-264]</t>
         </is>
       </c>
     </row>
@@ -2629,44 +2775,47 @@
           <t>Phi(~Time)p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49">
+        <v>41</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>0.87 [0.559-0.953]</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>0.05 [0.016-0.171]</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>0.08 [0.002-0.985]</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>526 [322-927]</t>
         </is>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>7</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>226.0196533333333</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>24.56442960451977</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>2.235009941944707E-06</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>-327.81965</v>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>3 [3-3]</t>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>53 [32-93]</t>
         </is>
       </c>
     </row>
@@ -2676,44 +2825,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>0.85 [0.623-0.928]</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>0.05 [0.03-0.091]</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>0.05 [0.026-0.105]</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>524 [336-869]</t>
         </is>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>7</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>226.1999633333333</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>24.74473960451976</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>2.042328699851295E-06</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>-327.63934</v>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>52 [34-87]</t>
         </is>
       </c>
     </row>
@@ -2723,44 +2875,47 @@
           <t>Phi(~1)p(~1)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51">
+        <v>31</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>0.86 [0.769-0.916]</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>0.07 [0.035-0.13]</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>0.09 [0.053-0.156]</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>592 [383-962]</t>
         </is>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>5</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>226.2357432786885</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>24.78051954987498</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>2.006116379732014E-06</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>-323.16203</v>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>59 [38-96]</t>
         </is>
       </c>
     </row>
@@ -2770,44 +2925,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52">
+        <v>18</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>0.9 [0.6-0]</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>0.04 [1-0]</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>428 [428-428]</t>
         </is>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>8</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>226.2743540336134</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>24.81913030479987</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>1.967758989042117E-06</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>-329.8417</v>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>3 [2-6]</t>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>43 [43-43]</t>
         </is>
       </c>
     </row>
@@ -2817,44 +2975,47 @@
           <t>Phi(~Time)p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53">
+        <v>59</v>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>0.85 [0.711-0.93]</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>0.06 [0.029-0.132]</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>0.08 [0.034-0.288]</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>539 [351-875]</t>
         </is>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>7</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>226.4932933333333</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>25.03806960451976</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>1.763720814003085E-06</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>-327.34602</v>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>7 [3-20]</t>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>54 [35-88]</t>
         </is>
       </c>
     </row>
@@ -2864,44 +3025,47 @@
           <t>Phi(~1)p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54">
+        <v>61</v>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>0.84 [0.74-0.907]</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>0.08 [0.038-0.15]</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>0.09 [0.046-0.216]</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>569 [366-933]</t>
         </is>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>6</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>226.8371448760331</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>25.38192114721949</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>1.485126427513047E-06</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>-324.76304</v>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>7 [3-16]</t>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>57 [37-93]</t>
         </is>
       </c>
     </row>
@@ -2911,44 +3075,47 @@
           <t>Phi(~Time + I(Time^2))p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55">
+        <v>63</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>0.86 [0.573-0.948]</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>0.07 [0.024-0.167]</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>0.08 [0.019-0.352]</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>512 [334-831]</t>
         </is>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>8</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>226.8733940336134</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>25.41817030479987</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>1.458451601774742E-06</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>-329.24266</v>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>6 [3-13]</t>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>51 [33-83]</t>
         </is>
       </c>
     </row>
@@ -2958,44 +3125,47 @@
           <t>Phi(~Time)p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56">
+        <v>62</v>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>0.86 [0.692-0.934]</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>0.06 [0.028-0.136]</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>0.09 [0.024-0.466]</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>539 [351-875]</t>
         </is>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>7</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>226.8920533333333</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>25.43682960451977</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>1.444908035596179E-06</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>-326.94725</v>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>10 [4-25]</t>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>54 [35-88]</t>
         </is>
       </c>
     </row>
@@ -3005,44 +3175,47 @@
           <t>Phi(~1)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57">
+        <v>85</v>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>0.83 [0.72-0.897]</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>0.07 [0.029-0.185]</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>0.07 [0.034-0.489]</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1288 [546-3302]</t>
         </is>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>8</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>227.1389640336134</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>25.68374030479987</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>1.277098012441774E-06</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>-328.9771</v>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>7 [3-15]</t>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>129 [55-330]</t>
         </is>
       </c>
     </row>
@@ -3052,44 +3225,47 @@
           <t>Phi(~1)p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58">
+        <v>40</v>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>0.86 [0.773-0.921]</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>0.07 [0.033-0.128]</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>0.09 [0.048-0.17]</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>602 [389-979]</t>
         </is>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>6</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>227.628214876033</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>26.17299114721948</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>9.999649056190168E-07</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>-323.97198</v>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>5 [3-11]</t>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>60 [39-98]</t>
         </is>
       </c>
     </row>
@@ -3099,44 +3275,47 @@
           <t>Phi(~1)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59">
+        <v>82</v>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>0.8 [0.695-0.88]</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>0.1 [0.032-0.255]</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>0.08 [0.028-0.367]</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>828 [357-2201]</t>
         </is>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>7</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>227.6709833333333</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>26.21575960451977</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>9.788084409792094E-07</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>-326.16832</v>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>83 [36-220]</t>
         </is>
       </c>
     </row>
@@ -3146,44 +3325,47 @@
           <t>Phi(~Time)p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60">
+        <v>47</v>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>0.87 [0.612-0.949]</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>0.05 [0.018-0.156]</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>0.08 [0.003-0.974]</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>530 [331-910]</t>
         </is>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>8</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>227.7916540336134</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>26.33643030479988</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>9.214979985827352E-07</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>-328.3244</v>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>4 [3-6]</t>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>53 [33-91]</t>
         </is>
       </c>
     </row>
@@ -3193,44 +3375,47 @@
           <t>Phi(~Time + I(Time^2))p(~wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61">
+        <v>30</v>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>0.91 [0.845-0.963]</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>0.06 [0.032-0.118]</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>0.03 [0.012-0.078]</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>476 [317-759]</t>
         </is>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>7</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>227.8616833333333</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>26.40645960451977</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>8.897904231014338E-07</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>-325.97762</v>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>3 [3-3]</t>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>48 [32-76]</t>
         </is>
       </c>
     </row>
@@ -3240,44 +3425,47 @@
           <t>Phi(~1)p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62">
+        <v>58</v>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>0.86 [0.769-0.916]</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>0.07 [0.034-0.133]</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>0.09 [0.052-0.157]</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>596 [385-969]</t>
         </is>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>6</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>228.130604876033</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>26.67538114721947</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>7.778433730979772E-07</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>-323.46958</v>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>60 [38-97]</t>
         </is>
       </c>
     </row>
@@ -3287,44 +3475,47 @@
           <t>Phi(~Time)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63">
+        <v>71</v>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>0.88 [0.651-0.949]</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>0.05 [0.02-0.13]</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>0.08 [0.004-0.983]</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>522 [326-895]</t>
         </is>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>8</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>228.2497240336134</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>26.79450030479987</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>7.328680010117666E-07</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>-327.86634</v>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>4 [3-6]</t>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>52 [33-90]</t>
         </is>
       </c>
     </row>
@@ -3334,44 +3525,47 @@
           <t>Phi(~1)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64">
+        <v>88</v>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>0.84 [0.741-0.907]</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>0.08 [0.037-0.152]</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>0.09 [0.045-0.226]</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>573 [369-942]</t>
         </is>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>7</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>228.7197033333333</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>27.26447960451978</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>5.793900749629684E-07</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>-325.1196</v>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>57 [37-94]</t>
         </is>
       </c>
     </row>
@@ -3381,44 +3575,47 @@
           <t>Phi(~Time)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65">
+        <v>89</v>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>0.85 [0.694-0.933]</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>0.06 [0.028-0.138]</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>0.09 [0.025-0.494]</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>541 [352-880]</t>
         </is>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>8</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>228.7345740336134</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>27.27935030479986</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>5.750980828932154E-07</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>-327.38148</v>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>4 [3-6]</t>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>54 [35-88]</t>
         </is>
       </c>
     </row>
@@ -3428,44 +3625,47 @@
           <t>Phi(~1)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66">
+        <v>70</v>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>0.84 [0.741-0.912]</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>0.07 [0.035-0.151]</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>0.09 [0.042-0.221]</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>576 [369-947]</t>
         </is>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>7</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>228.8490133333333</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>27.39378960451978</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>5.431149301840942E-07</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>-324.9903</v>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>58 [37-95]</t>
         </is>
       </c>
     </row>
@@ -3475,44 +3675,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67">
+        <v>20</v>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>0.84 [0.722-0.918]</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>0.05 [0.027-0.098]</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>0.02 [0.003-0.137]</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>486 [319-789]</t>
         </is>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>8</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>229.1407740336134</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>27.68555030479988</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>4.693931100932574E-07</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>-326.97528</v>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>49 [32-79]</t>
         </is>
       </c>
     </row>
@@ -3522,44 +3725,47 @@
           <t>Phi(~Time)p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68">
+        <v>14</v>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>0.85 [0.732-0.927]</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>0.05 [0.026-0.09]</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>0.02 [0.003-0.166]</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>484 [315-792]</t>
         </is>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>7</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>229.2762333333333</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>27.82100960451976</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>4.386540034718934E-07</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>-324.56307</v>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>4 [3-6]</t>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>48 [32-79]</t>
         </is>
       </c>
     </row>
@@ -3569,44 +3775,47 @@
           <t>Phi(~1)p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69">
+        <v>46</v>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>0.86 [0.774-0.92]</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>0.07 [0.032-0.13]</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>0.09 [0.047-0.173]</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>607 [392-989]</t>
         </is>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>7</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>229.4708433333333</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>28.01561960451977</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>3.9798167254219E-07</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>-324.36847</v>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>4 [3-6]</t>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>61 [39-99]</t>
         </is>
       </c>
     </row>
@@ -3616,44 +3825,47 @@
           <t>Phi(~Time)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70">
+        <v>77</v>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>0.87 [0.651-0.95]</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>0.05 [0.021-0.13]</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>0.08 [0.004-0.98]</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>526 [331-895]</t>
         </is>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>9</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>230.0624237288136</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>28.60720000000001</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>2.96075875491371E-07</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>-328.36897</v>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>53 [33-90]</t>
         </is>
       </c>
     </row>
@@ -3663,44 +3875,47 @@
           <t>Phi(~1)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71">
+        <v>76</v>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>0.85 [0.742-0.912]</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>0.07 [0.034-0.153]</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>0.09 [0.041-0.231]</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>580 [372-956]</t>
         </is>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>8</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>230.7444340336134</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>29.28921030479987</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>2.105263040546424E-07</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>-325.37162</v>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>58 [37-96]</t>
         </is>
       </c>
     </row>
@@ -3710,44 +3925,47 @@
           <t>Phi(~Time + I(Time^2))p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>0.91 [0.6-0]</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>0.04 [1-0]</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>431 [431-431]</t>
         </is>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>6</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>233.8387548760331</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>32.38353114721949</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>4.481084490890725E-08</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>-317.76143</v>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>4 [2-7]</t>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>43 [43-43]</t>
         </is>
       </c>
     </row>
@@ -3757,44 +3975,47 @@
           <t>Phi(~Time)p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>0.88 [0.746-0.949]</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>0.04 [0.023-0.081]</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>0.01 [0-0.855]</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>481 [311-798]</t>
         </is>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>6</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>235.158834876033</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>33.70361114721948</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>2.315961858759795E-08</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>-316.44135</v>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>3 [2-5]</t>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>48 [31-80]</t>
         </is>
       </c>
     </row>
@@ -3804,44 +4025,47 @@
           <t>Phi(~Time)p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74">
+        <v>17</v>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>0.87 [0.74-0.947]</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>0.05 [0.023-0.086]</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>0.01 [0-0.724]</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>488 [316-804]</t>
         </is>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>7</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>236.5173133333333</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>35.06208960451977</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>1.174198588252194E-08</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>-317.32199</v>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>49 [32-80]</t>
         </is>
       </c>
     </row>
@@ -3851,44 +4075,47 @@
           <t>Phi(~Time)p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>0.84 [0.708-0.919]</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>0.05 [0.027-0.099]</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>0.05 [0.02-0.118]</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>544 [349-900]</t>
         </is>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>6</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>237.152444876033</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>35.69722114721947</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>8.547212308419887E-09</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>-314.44774</v>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>54 [35-90]</t>
         </is>
       </c>
     </row>
@@ -3898,44 +4125,47 @@
           <t>Phi(~Time)p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>0.83 [0.702-0.916]</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>0.05 [0.027-0.104]</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>0.05 [0.019-0.117]</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>540 [348-888]</t>
         </is>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>7</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>238.6242833333333</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>37.16905960451976</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>4.094669293087947E-09</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>-315.21502</v>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>54 [35-89]</t>
         </is>
       </c>
     </row>
@@ -3945,44 +4175,47 @@
           <t>Phi(~Time)p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>0.87 [0.735-0.94]</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>0.05 [0.025-0.085]</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>0.03 [0.004-0.174]</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>514 [327-863]</t>
         </is>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>5</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>240.5256732786885</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>39.07044954987498</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>1.582476432986329E-09</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>-308.8721</v>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>51 [33-86]</t>
         </is>
       </c>
     </row>
@@ -3992,44 +4225,47 @@
           <t>Phi(~Time)p(~wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78">
+        <v>29</v>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>0.86 [0.729-0.938]</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>0.05 [0.024-0.089]</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>0.03 [0.004-0.167]</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>516 [330-859]</t>
         </is>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>6</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>242.187594876033</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>40.73237114721948</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>6.893750502965947E-10</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>-309.41259</v>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>4 [2-7]</t>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>52 [33-86]</t>
         </is>
       </c>
     </row>
@@ -4039,44 +4275,47 @@
           <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79">
+        <v>19</v>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>0.92 [0.891-0.948]</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>0.04 [0.023-0.071]</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>624 [400-1022]</t>
         </is>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>7</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>242.6404733333333</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>41.18524960451978</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>5.496854658221972E-10</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>-311.19883</v>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>3 [3-3]</t>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>62 [40-102]</t>
         </is>
       </c>
     </row>
@@ -4086,44 +4325,47 @@
           <t>Phi(~1)p(~Time)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80">
+        <v>22</v>
+      </c>
+      <c r="C80" t="inlineStr">
         <is>
           <t>0.9 [0.733-0.97]</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>0.08 [0.042-0.155]</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>0.1 [0.095-0.1]</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>787 [494-1305]</t>
         </is>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>5</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>243.0006132786885</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>41.54538954987498</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>4.591037694030161E-10</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>-306.39717</v>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>4 [3-6]</t>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>79 [49-130]</t>
         </is>
       </c>
     </row>
@@ -4133,44 +4375,47 @@
           <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81">
+        <v>13</v>
+      </c>
+      <c r="C81" t="inlineStr">
         <is>
           <t>0.93 [0.898-0.953]</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>0.04 [0.023-0.066]</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>602 [388-983]</t>
         </is>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>6</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>243.056294876033</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>41.60107114721947</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>4.464982419770958E-10</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>-308.5439</v>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>60 [39-98]</t>
         </is>
       </c>
     </row>
@@ -4180,44 +4425,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82">
+        <v>24</v>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>0.86 [0.552-0.952]</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>0.07 [0.033-0.141]</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>0.1 [0.088-0.103]</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>785 [494-1296]</t>
         </is>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>7</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>243.0803633333333</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>41.62513960451977</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>4.411571822668634E-10</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>-310.75894</v>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>78 [49-130]</t>
         </is>
       </c>
     </row>
@@ -4227,44 +4475,47 @@
           <t>Phi(~Time)p(~Time)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83">
+        <v>23</v>
+      </c>
+      <c r="C83" t="inlineStr">
         <is>
           <t>0.87 [0.67-0.956]</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>0.07 [0.037-0.144]</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>0.1 [0.092-0.101]</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>798 [505-1310]</t>
         </is>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>6</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>243.296614876033</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>41.84139114721947</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>3.959450594898841E-10</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>-308.30357</v>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>6 [3-16]</t>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>80 [50-131]</t>
         </is>
       </c>
     </row>
@@ -4274,44 +4525,47 @@
           <t>Phi(~1)p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84">
+        <v>25</v>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>0.9 [0.731-0.968]</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>0.07 [0.031-0.155]</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>0.1 [0.088-0.103]</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>784 [494-1293]</t>
         </is>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>6</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>243.4202548760331</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>41.96503114721949</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>3.722089771104736E-10</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>-308.17993</v>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>7 [3-16]</t>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>78 [49-129]</t>
         </is>
       </c>
     </row>
@@ -4321,44 +4575,47 @@
           <t>Phi(~Time)p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85">
+        <v>26</v>
+      </c>
+      <c r="C85" t="inlineStr">
         <is>
           <t>0.88 [0.643-0.966]</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>0.07 [0.029-0.159]</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>0.1 [0.086-0.105]</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>782 [491-1294]</t>
         </is>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>7</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>245.0241833333333</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>43.56895960451976</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>1.669160905446889E-10</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>-308.81512</v>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>5 [3-10]</t>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>78 [49-129]</t>
         </is>
       </c>
     </row>
@@ -4368,44 +4625,47 @@
           <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>0.93 [0.902-0.948]</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>0.04 [0.029-0.052]</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>615 [409-963]</t>
         </is>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>5</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>245.6746532786885</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>44.21942954987497</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>1.205731064670492E-10</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>-303.72312</v>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>10 [4-24]</t>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>62 [41-96]</t>
         </is>
       </c>
     </row>
@@ -4415,44 +4675,47 @@
           <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87">
+        <v>16</v>
+      </c>
+      <c r="C87" t="inlineStr">
         <is>
           <t>0.93 [0.893-0.948]</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>0.04 [0.023-0.068]</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>628 [403-1027]</t>
         </is>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>6</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>246.491324876033</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>45.03610114721948</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>8.015164981751888E-11</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>-305.10886</v>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>5 [3-10]</t>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>63 [40-103]</t>
         </is>
       </c>
     </row>
@@ -4462,44 +4725,47 @@
           <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>0.95 [0.918-0.968]</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.058]</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>0 [0-1]</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>544 [355-881]</t>
         </is>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>5</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>252.9542332786885</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>51.49900954987498</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>3.165991452384252E-12</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>-296.44354</v>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>5 [3-11]</t>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>54 [36-88]</t>
         </is>
       </c>
     </row>
@@ -4509,44 +4775,47 @@
           <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>0.94 [0.915-0.963]</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>0.04 [0.022-0.057]</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>0 [0-1]</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>563 [366-911]</t>
         </is>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>4</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>253.0424632520325</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>51.58723952321895</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>3.029359693667761E-12</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>-294.18871</v>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>56 [37-91]</t>
         </is>
       </c>
     </row>
@@ -4556,44 +4825,47 @@
           <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>0.95 [0.914-0.966]</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>0.04 [0.021-0.061]</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>553 [360-897]</t>
         </is>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>6</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>254.112534876033</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>52.65731114721947</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>1.774139404765144E-12</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>-297.48765</v>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>55 [36-90]</t>
         </is>
       </c>
     </row>
@@ -4603,44 +4875,47 @@
           <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91">
+        <v>28</v>
+      </c>
+      <c r="C91" t="inlineStr">
         <is>
           <t>0.94 [0.911-0.961]</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>0.04 [0.022-0.061]</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>572 [371-928]</t>
         </is>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>5</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>254.3844032786885</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>52.92917954987496</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>1.548646403982024E-12</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>-295.01338</v>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>3 [3-3]</t>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>57 [37-93]</t>
         </is>
       </c>
     </row>
